--- a/calculo_zapata.xlsx
+++ b/calculo_zapata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rolo_\Documents\MEGAsync\cuarto semestre\mecanismos\requerimientos de trabajo\requerimiento 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229C16E7-D594-40A9-8E21-22023CFAF806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AB8A66-C4DF-4C67-B8BC-275153BC17EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B6" s="8">
         <f>B21</f>
-        <v>1201.2531291281769</v>
+        <v>3486.6185214168527</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B8" s="8">
         <f>((B11*B16*B18*(-B10*(0.5*SIN(B23)^2-0.5*SIN(B22)^2)+(0.5*(B23-B22))-0.25*(SIN(2*B23)-SIN(2*B22)))/SIN(RADIANS(90)))-B21)+B27</f>
-        <v>6742.0101599545387</v>
+        <v>2171.2793753771866</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>11</v>
@@ -1286,8 +1286,8 @@
         <v>21</v>
       </c>
       <c r="B19" s="8">
-        <f>B11*B16*B15*B18*(0.5*(RADIANS(B13-B12))-0.25*(SIN(2*RADIANS(B13))-SIN(2*RADIANS(B13))))/SIN(RADIANS(90))</f>
-        <v>687.22339297276733</v>
+        <f>B11*B16*B15*B18*(0.5*(RADIANS(B13-B12))-0.25*(SIN(2*RADIANS(B13))-SIN(2*RADIANS(B12))))/SIN(RADIANS(90))</f>
+        <v>1215.800492164841</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>23</v>
@@ -1301,8 +1301,8 @@
         <v>22</v>
       </c>
       <c r="B20" s="8">
-        <f>B10*B11*B16*B18*(-B16*(COS(RADIANS(B13)-COS(RADIANS(B12))))-(0.5*B15*(SIN(RADIANS(B13)^2)-SIN(RADIANS(B12))^2)))</f>
-        <v>386.91011069072312</v>
+        <f>B10*B11*B16*B18*(-B16*(COS(RADIANS(B13))-COS(RADIANS(B12))))-(0.5*B15*(SIN(RADIANS(B13))^2-SIN(RADIANS(B12))^2))</f>
+        <v>344.14586181062782</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>23</v>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B21" s="8">
         <f>(B19-B20)/B14</f>
-        <v>1201.2531291281769</v>
+        <v>3486.6185214168527</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>11</v>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B27" s="8">
         <f>((B11*B16*B24*(-B10*0.5*(SIN(B23)^2-SIN(B22)^2)+(0.5*(B23-B22)-0.25*(SIN(2*B23)-SIN(2*B22)))))/SIN(RADIANS(B17)))-B21</f>
-        <v>-162.07332534955822</v>
+        <v>-2447.4387176382343</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>11</v>
